--- a/Metadata/variables_key.xlsx
+++ b/Metadata/variables_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mono5\Dropbox (GaTech)\PhD\GA_TECH\Dissertation\Spartina\2018-2019_Summary\Paper_spartina_assembly\Submission_Microbiome\Spartina_GA_Core_Microbiome\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (GaTech)\PhD\GA_TECH\Dissertation\Spartina\2018-2019_Summary\Paper_spartina_assembly\Submission_Microbiome\Spartina_GA_Core_Microbiome\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99BCEC4-A42E-4866-AC3D-E3C1807B53FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412EBD54-C654-4202-A08B-8299C6F86481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1050" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables_key" sheetId="1" r:id="rId1"/>
@@ -613,10 +613,10 @@
     <t>note</t>
   </si>
   <si>
-    <t>*Note that for some variables, values are repeated for the same sampling point, but different sediment depth due to the nature of the variable. E.g., plant height, density, biomass, crab burrow and snail density</t>
-  </si>
-  <si>
     <t>Note that Sapelo 2018 and 2019 have repeated values for the same sampling point and depth. We assume sediment organic matter does not change significantely annualy</t>
+  </si>
+  <si>
+    <t>*Note that for some variables values are repeated for the same sampling point but different sediment depth due to the nature of the variable: E.g., plant height, density, and biomass; crab burrow, and snail density</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1898,7 @@
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -1913,7 +1913,7 @@
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -1942,7 +1942,7 @@
         <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
         <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
